--- a/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/OneDrive - University of Pittsburgh/ULS_Work/DigitalCollections/Pitt/ULS_AudioVisual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA952D-72BC-4746-AC0F-4282FEE100AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C7CA9-6E88-0F48-800B-1D3B052C6124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-6100" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-6100" windowWidth="29280" windowHeight="19360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
-  <si>
-    <t>copyrighted</t>
-  </si>
-  <si>
-    <t>unpublished</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>interviewer</t>
   </si>
@@ -91,9 +85,6 @@
     <t>language</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -121,103 +112,10 @@
     <t>related_parent_item</t>
   </si>
   <si>
-    <t>media_object_derivative_filename</t>
-  </si>
-  <si>
-    <t>medial_object_main_filename</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_a</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_b</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_a</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_a.wav</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_b.wav</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_a.wav</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_b.wav</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_a.mp3</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_b.mp3</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_a.mp3</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T02_b.mp3</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo</t>
-  </si>
-  <si>
-    <t>sound recording-nonmusical</t>
-  </si>
-  <si>
-    <t>oral history</t>
-  </si>
-  <si>
-    <t>Sisters of St. Joseph</t>
-  </si>
-  <si>
-    <t>cassette tape</t>
-  </si>
-  <si>
-    <t>1989-09-15</t>
-  </si>
-  <si>
-    <t>Palombo, Zia</t>
-  </si>
-  <si>
-    <t>Interview with Zia Palombo, September 15, Tape 1, Side A</t>
-  </si>
-  <si>
-    <t>Interview with Zia Palombo, September 15, Tape 1, Side B</t>
-  </si>
-  <si>
-    <t>Interview with Zia Palombo, September 15, Tape 2, Side A</t>
-  </si>
-  <si>
-    <t>Interview with Zia Palombo, September 15, Tape 2, Side B</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Jones</t>
-  </si>
-  <si>
-    <t>Interview with Zia Palombo, September 15,1986</t>
-  </si>
-  <si>
-    <t>Whitt, Sally</t>
-  </si>
-  <si>
     <t>contributor</t>
   </si>
   <si>
-    <t>[t1s1] Sister Sally describes […]. [t1s2] Life in Aliquippa […], etc.</t>
-  </si>
-  <si>
-    <t>1989/1991</t>
-  </si>
-  <si>
-    <t>Aliquippa (Pa.); Baden (Pa.)</t>
-  </si>
-  <si>
-    <t>Buildings--Design and construction; Dwellings; Men</t>
-  </si>
-  <si>
-    <t>RG509_ALIQ_Palombo_T01_b</t>
+    <t>media_object_filename</t>
   </si>
 </sst>
 </file>
@@ -722,12 +620,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AEC107"/>
+  <dimension ref="A1:AEC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,141 +660,93 @@
   <sheetData>
     <row r="1" spans="1:26" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="R1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="13"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -1713,23 +1563,7 @@
       <c r="W104" s="8"/>
     </row>
     <row r="105" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="13"/>
       <c r="W105" s="8"/>
-    </row>
-    <row r="106" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="13"/>
-      <c r="W106" s="8"/>
-    </row>
-    <row r="107" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="W107" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1739,110 +1573,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="64.5" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.5" style="4"/>
+    <col min="2" max="2" width="34.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
-        <v>55</v>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C7CA9-6E88-0F48-800B-1D3B052C6124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC7230-1ACB-D740-BBEB-DDD2E47091F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-6100" windowWidth="29280" windowHeight="19360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="-6560" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>interviewer</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>media_object_filename</t>
+  </si>
+  <si>
+    <t>source_citation</t>
+  </si>
+  <si>
+    <t>batch</t>
   </si>
 </sst>
 </file>
@@ -622,63 +628,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AEC105"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="35.83203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="809" width="9" style="5"/>
+    <col min="24" max="24" width="12.33203125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="809" width="9" style="5"/>
     <col min="810" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>7</v>
@@ -690,879 +698,885 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>21</v>
+      <c r="X1" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="Y1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L2" s="8"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="13"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L3" s="8"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="13"/>
+      <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L4" s="8"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="13"/>
+      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L5" s="8"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="13"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L6" s="8"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="13"/>
+      <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L7" s="8"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="13"/>
+      <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L8" s="8"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="13"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L9" s="8"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="13"/>
+      <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L10" s="8"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="13"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L11" s="8"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="13"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L12" s="8"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="13"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L13" s="8"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="13"/>
+      <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L14" s="8"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="13"/>
+      <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L15" s="8"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="13"/>
+      <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L16" s="8"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="13"/>
+      <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L17" s="8"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="13"/>
+      <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L18" s="8"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="13"/>
+      <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L19" s="8"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="13"/>
+      <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L20" s="8"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="13"/>
+      <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L21" s="8"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="13"/>
+      <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L22" s="8"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="13"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L23" s="8"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="13"/>
+      <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L24" s="8"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="13"/>
+      <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L25" s="8"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="13"/>
+      <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L26" s="8"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="13"/>
+      <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L27" s="8"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="13"/>
+      <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L28" s="8"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="13"/>
+      <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L29" s="8"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="13"/>
+      <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L30" s="8"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="13"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L31" s="8"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="13"/>
+      <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L32" s="8"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="13"/>
+      <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L33" s="8"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="13"/>
+      <c r="V33" s="8"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L34" s="8"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="13"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L35" s="8"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="13"/>
+      <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L36" s="8"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="13"/>
+      <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L37" s="8"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="13"/>
+      <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="38" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L38" s="8"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="13"/>
+      <c r="V38" s="8"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L39" s="8"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="13"/>
+      <c r="V39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L40" s="8"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="13"/>
+      <c r="V40" s="8"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L41" s="8"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="13"/>
+      <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L42" s="8"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="13"/>
+      <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L43" s="8"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="13"/>
+      <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L44" s="8"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="13"/>
+      <c r="V44" s="8"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="45" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L45" s="8"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="13"/>
+      <c r="V45" s="8"/>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L46" s="8"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="13"/>
+      <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L47" s="8"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="13"/>
+      <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L48" s="8"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="13"/>
+      <c r="V48" s="8"/>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L49" s="8"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="13"/>
+      <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L50" s="8"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="13"/>
+      <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L51" s="8"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="13"/>
+      <c r="V51" s="8"/>
       <c r="W51" s="8"/>
     </row>
-    <row r="52" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L52" s="8"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="13"/>
+      <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L53" s="8"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="13"/>
+      <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L54" s="8"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="13"/>
+      <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L55" s="8"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="13"/>
+      <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L56" s="8"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="13"/>
+      <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L57" s="8"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="13"/>
+      <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L58" s="8"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="13"/>
+      <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L59" s="8"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="13"/>
+      <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L60" s="8"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="13"/>
+      <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L61" s="8"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="13"/>
+      <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L62" s="8"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="13"/>
+      <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L63" s="8"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="13"/>
+      <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L64" s="8"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="13"/>
+      <c r="V64" s="8"/>
       <c r="W64" s="8"/>
     </row>
-    <row r="65" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L65" s="8"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="8"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="13"/>
+      <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L66" s="8"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="8"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="13"/>
+      <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L67" s="8"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="8"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="13"/>
+      <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L68" s="8"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="13"/>
+      <c r="V68" s="8"/>
       <c r="W68" s="8"/>
     </row>
-    <row r="69" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L69" s="8"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="8"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="13"/>
+      <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L70" s="8"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="13"/>
+      <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L71" s="8"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="13"/>
+      <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L72" s="8"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="13"/>
+      <c r="V72" s="8"/>
       <c r="W72" s="8"/>
     </row>
-    <row r="73" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L73" s="8"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="13"/>
+      <c r="V73" s="8"/>
       <c r="W73" s="8"/>
     </row>
-    <row r="74" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L74" s="8"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="13"/>
+      <c r="V74" s="8"/>
       <c r="W74" s="8"/>
     </row>
-    <row r="75" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L75" s="8"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="13"/>
+      <c r="V75" s="8"/>
       <c r="W75" s="8"/>
     </row>
-    <row r="76" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L76" s="8"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="8"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="13"/>
+      <c r="V76" s="8"/>
       <c r="W76" s="8"/>
     </row>
-    <row r="77" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L77" s="8"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="8"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="13"/>
+      <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L78" s="8"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="13"/>
+      <c r="V78" s="8"/>
       <c r="W78" s="8"/>
     </row>
-    <row r="79" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L79" s="8"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="13"/>
+      <c r="V79" s="8"/>
       <c r="W79" s="8"/>
     </row>
-    <row r="80" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L80" s="8"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="13"/>
+      <c r="V80" s="8"/>
       <c r="W80" s="8"/>
     </row>
-    <row r="81" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L81" s="8"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="13"/>
+      <c r="V81" s="8"/>
       <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L82" s="8"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="13"/>
+      <c r="V82" s="8"/>
       <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L83" s="8"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="13"/>
+      <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L84" s="8"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="13"/>
+      <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L85" s="8"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="13"/>
+      <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L86" s="8"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="13"/>
+      <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L87" s="8"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="8"/>
       <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="13"/>
+      <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L88" s="8"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="13"/>
+      <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L89" s="8"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="8"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="13"/>
+      <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L90" s="8"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="8"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="13"/>
+      <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L91" s="8"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="13"/>
+      <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L92" s="8"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="13"/>
+      <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L93" s="8"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="13"/>
+      <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L94" s="8"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="8"/>
       <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="13"/>
+      <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L95" s="8"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="13"/>
+      <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L96" s="8"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="8"/>
       <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="13"/>
+      <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L97" s="8"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="8"/>
       <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="13"/>
+      <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L98" s="8"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="8"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="13"/>
+      <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L99" s="8"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="8"/>
       <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="13"/>
+      <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L100" s="8"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="8"/>
       <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="13"/>
+      <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L101" s="8"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="8"/>
       <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="13"/>
+      <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L102" s="8"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="8"/>
       <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="13"/>
+      <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L103" s="8"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="8"/>
       <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="13"/>
+      <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L104" s="8"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="8"/>
       <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="13"/>
+      <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105" spans="15:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="12:23" x14ac:dyDescent="0.2">
       <c r="W105" s="8"/>
     </row>
   </sheetData>
@@ -1575,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>

--- a/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Complex_metadata_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC7230-1ACB-D740-BBEB-DDD2E47091F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5B122-AA54-E54E-97E1-AC27B2F76313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="-6560" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -122,13 +119,16 @@
   </si>
   <si>
     <t>batch</t>
+  </si>
+  <si>
+    <t>type_of_resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +158,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -204,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -243,6 +249,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +638,7 @@
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -680,76 +687,76 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -1605,16 +1612,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
